--- a/Documents/2. 요구분석/2023-12-29 A팀 기능적 요구사항 정의.xlsx
+++ b/Documents/2. 요구분석/2023-12-29 A팀 기능적 요구사항 정의.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenTeamProjectFirst\Documents\2. 요구분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B3C712-AA53-404A-AE37-20C024446826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9390"/>
+    <workbookView xWindow="5280" yWindow="945" windowWidth="18390" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능적 요구사항 정의" sheetId="1" r:id="rId1"/>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -334,133 +335,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,31 +375,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,11 +660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,23 +676,22 @@
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -841,7 +700,7 @@
       <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>45289</v>
       </c>
       <c r="H3" s="10"/>
@@ -850,7 +709,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -859,12 +718,12 @@
       <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -873,12 +732,12 @@
       <c r="D5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -887,12 +746,12 @@
       <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -901,12 +760,12 @@
       <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -915,12 +774,12 @@
       <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -929,12 +788,12 @@
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -943,12 +802,12 @@
       <c r="D10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -957,12 +816,12 @@
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -971,12 +830,12 @@
       <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -985,12 +844,12 @@
       <c r="D13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -999,12 +858,12 @@
       <c r="D14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1013,105 +872,105 @@
       <c r="D15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>45289</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="12">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="15">
-        <v>45289</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="14">
+      <c r="E17" s="12">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="12">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="12">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="12">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="11">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="12">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="15">
-        <v>45289</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="14">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="15">
-        <v>45289</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="15">
-        <v>45289</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="15">
-        <v>45289</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="14">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="15">
-        <v>45289</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="16">
-        <v>20</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="E22" s="12">
         <v>45289</v>
       </c>
     </row>

--- a/Documents/2. 요구분석/2023-12-29 A팀 기능적 요구사항 정의.xlsx
+++ b/Documents/2. 요구분석/2023-12-29 A팀 기능적 요구사항 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenTeamProjectFirst\Documents\2. 요구분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B3C712-AA53-404A-AE37-20C024446826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38AD6A4-E0B1-4ACF-A6E2-60202E1E67B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="945" windowWidth="18390" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능적 요구사항 정의" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>요구사항 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,91 @@
     <t>-비회원으로 바로결제 시 로그인창을 보여준다.
 -로그인창의 아래쪽에 비회원 주문하기 버튼이 표시된다.
 -비회원상태로 결제페이지로 주문할 상품을 이동시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>상품관리-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,6 +464,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -674,6 +765,7 @@
     <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="65.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
@@ -689,10 +781,13 @@
       <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B3" s="11">
-        <v>1</v>
+      <c r="B3" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -702,6 +797,9 @@
       </c>
       <c r="E3" s="12">
         <v>45289</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -709,8 +807,8 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="11">
-        <v>2</v>
+      <c r="B4" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -721,10 +819,11 @@
       <c r="E4" s="12">
         <v>45289</v>
       </c>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
-        <v>3</v>
+      <c r="B5" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -735,10 +834,11 @@
       <c r="E5" s="12">
         <v>45289</v>
       </c>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
-        <v>4</v>
+      <c r="B6" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -749,10 +849,11 @@
       <c r="E6" s="12">
         <v>45289</v>
       </c>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
-        <v>5</v>
+      <c r="B7" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -763,10 +864,13 @@
       <c r="E7" s="12">
         <v>45289</v>
       </c>
+      <c r="F7" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="11">
-        <v>6</v>
+      <c r="B8" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
@@ -777,10 +881,11 @@
       <c r="E8" s="12">
         <v>45289</v>
       </c>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="11">
-        <v>7</v>
+      <c r="B9" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -791,10 +896,11 @@
       <c r="E9" s="12">
         <v>45289</v>
       </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
-        <v>8</v>
+      <c r="B10" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -805,10 +911,11 @@
       <c r="E10" s="12">
         <v>45289</v>
       </c>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
-        <v>9</v>
+      <c r="B11" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>28</v>
@@ -819,10 +926,11 @@
       <c r="E11" s="12">
         <v>45289</v>
       </c>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
-        <v>10</v>
+      <c r="B12" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
@@ -833,10 +941,13 @@
       <c r="E12" s="12">
         <v>45289</v>
       </c>
+      <c r="F12" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
-        <v>11</v>
+      <c r="B13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -847,10 +958,11 @@
       <c r="E13" s="12">
         <v>45289</v>
       </c>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
-        <v>12</v>
+      <c r="B14" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -861,10 +973,11 @@
       <c r="E14" s="12">
         <v>45289</v>
       </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
-        <v>13</v>
+      <c r="B15" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -875,10 +988,11 @@
       <c r="E15" s="12">
         <v>45289</v>
       </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
-        <v>14</v>
+      <c r="B16" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>23</v>
@@ -889,10 +1003,11 @@
       <c r="E16" s="12">
         <v>45289</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
-        <v>15</v>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -903,10 +1018,13 @@
       <c r="E17" s="12">
         <v>45289</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="11">
-        <v>16</v>
+      <c r="F17" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -917,10 +1035,11 @@
       <c r="E18" s="12">
         <v>45289</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
-        <v>17</v>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -931,10 +1050,11 @@
       <c r="E19" s="12">
         <v>45289</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="11">
-        <v>18</v>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>13</v>
@@ -945,10 +1065,13 @@
       <c r="E20" s="12">
         <v>45289</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="11">
-        <v>19</v>
+      <c r="F20" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>14</v>
@@ -959,10 +1082,11 @@
       <c r="E21" s="12">
         <v>45289</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="11">
-        <v>20</v>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>15</v>
@@ -973,8 +1097,16 @@
       <c r="E22" s="12">
         <v>45289</v>
       </c>
+      <c r="F22" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F20:F22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
